--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2308665.920763771</v>
+        <v>2424100.011505223</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>152.0747039460364</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>130.4949840230019</v>
       </c>
       <c r="W3" t="n">
-        <v>135.1960163205672</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.00402729331236</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>188.8837547751687</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>188.8837547751687</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>166.3688112059686</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760054</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425929</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>188.8837547751687</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>30.80045837589385</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074806</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>188.8837547751687</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>164.6684348237207</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>188.8837547751687</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>188.8837547751687</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>162.7300946919129</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.076403154414</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355295</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882101</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.74335864645631</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>92.01936427017708</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>170.6277217633962</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>23.29916283915599</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>96.53812753786532</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>104.7042376937429</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>137.5213979579545</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695543</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>54.26758323426815</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>160.4062378350031</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>128.7631841214232</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>104.7777418077832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>86.88943397770092</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>177.9413471369465</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>45.16086499484882</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663478</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>27.6842674365326</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>98.99704524587401</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>114.6638016462585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.55707494718576</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>134.3542165280277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487947</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="C2" t="n">
-        <v>371.26277863231</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="D2" t="n">
-        <v>371.26277863231</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="E2" t="n">
-        <v>371.26277863231</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656065</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>560.6825636487954</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264277</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264277</v>
+        <v>336.23494716454</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099429</v>
+        <v>146.815162148055</v>
       </c>
       <c r="V3" t="n">
-        <v>298.0982375934582</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404144</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.951676120536</v>
+        <v>1341.544105080013</v>
       </c>
       <c r="C5" t="n">
-        <v>373.951676120536</v>
+        <v>1341.544105080013</v>
       </c>
       <c r="D5" t="n">
-        <v>373.951676120536</v>
+        <v>1341.544105080013</v>
       </c>
       <c r="E5" t="n">
-        <v>373.951676120536</v>
+        <v>955.7558524817691</v>
       </c>
       <c r="F5" t="n">
-        <v>183.1600046304667</v>
+        <v>544.7699476921616</v>
       </c>
       <c r="G5" t="n">
-        <v>15.11070038201349</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="H5" t="n">
-        <v>15.11070038201349</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>15.11070038201349</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590424</v>
+        <v>111.6705539017213</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543415</v>
+        <v>277.980716674697</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186781</v>
+        <v>521.204941603075</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398386</v>
+        <v>823.5081935709161</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681812</v>
+        <v>1135.316836582749</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875671</v>
+        <v>1416.413635079236</v>
       </c>
       <c r="P5" t="n">
-        <v>739.3913607574713</v>
+        <v>1621.822248332755</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006747</v>
+        <v>1727.90281583788</v>
       </c>
       <c r="R5" t="n">
-        <v>755.5350191006747</v>
+        <v>1703.718566540649</v>
       </c>
       <c r="S5" t="n">
-        <v>755.5350191006747</v>
+        <v>1703.718566540649</v>
       </c>
       <c r="T5" t="n">
-        <v>755.5350191006747</v>
+        <v>1703.718566540649</v>
       </c>
       <c r="U5" t="n">
-        <v>564.7433476106054</v>
+        <v>1703.718566540649</v>
       </c>
       <c r="V5" t="n">
-        <v>564.7433476106054</v>
+        <v>1372.655679197078</v>
       </c>
       <c r="W5" t="n">
-        <v>564.7433476106054</v>
+        <v>1372.655679197078</v>
       </c>
       <c r="X5" t="n">
-        <v>564.7433476106054</v>
+        <v>1341.544105080013</v>
       </c>
       <c r="Y5" t="n">
-        <v>564.7433476106054</v>
+        <v>1341.544105080013</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.11070038201349</v>
+        <v>495.027482145176</v>
       </c>
       <c r="C6" t="n">
-        <v>15.11070038201349</v>
+        <v>320.574452864049</v>
       </c>
       <c r="D6" t="n">
-        <v>15.11070038201349</v>
+        <v>171.6400432027978</v>
       </c>
       <c r="E6" t="n">
-        <v>15.11070038201349</v>
+        <v>171.6400432027978</v>
       </c>
       <c r="F6" t="n">
-        <v>15.11070038201349</v>
+        <v>171.6400432027978</v>
       </c>
       <c r="G6" t="n">
-        <v>15.11070038201349</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="H6" t="n">
-        <v>15.11070038201349</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="I6" t="n">
-        <v>15.11070038201349</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="J6" t="n">
-        <v>15.11070038201349</v>
+        <v>61.66788464787511</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340817</v>
+        <v>186.1577239806059</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208071</v>
+        <v>399.8722171189971</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914163</v>
+        <v>668.623818522349</v>
       </c>
       <c r="N6" t="n">
-        <v>514.829623354859</v>
+        <v>958.8971200352464</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747533</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165407</v>
+        <v>1378.176233639506</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994142</v>
+        <v>1445.878660906547</v>
       </c>
       <c r="R6" t="n">
-        <v>753.8174671994142</v>
+        <v>1401.100270703771</v>
       </c>
       <c r="S6" t="n">
-        <v>753.8174671994142</v>
+        <v>1258.309378699366</v>
       </c>
       <c r="T6" t="n">
-        <v>563.0257957093448</v>
+        <v>1062.768760419121</v>
       </c>
       <c r="U6" t="n">
-        <v>396.6940433621522</v>
+        <v>1062.768760419121</v>
       </c>
       <c r="V6" t="n">
-        <v>205.9023718720829</v>
+        <v>827.6166521873783</v>
       </c>
       <c r="W6" t="n">
-        <v>15.11070038201349</v>
+        <v>827.6166521873783</v>
       </c>
       <c r="X6" t="n">
-        <v>15.11070038201349</v>
+        <v>663.2428191652441</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.11070038201349</v>
+        <v>663.2428191652441</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.11005739570334</v>
+        <v>188.1705847555596</v>
       </c>
       <c r="C7" t="n">
-        <v>29.11005739570334</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="D7" t="n">
-        <v>29.11005739570334</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="E7" t="n">
-        <v>29.11005739570334</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="F7" t="n">
-        <v>29.11005739570334</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="G7" t="n">
-        <v>29.11005739570334</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="H7" t="n">
-        <v>29.11005739570334</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="I7" t="n">
-        <v>29.11005739570334</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="J7" t="n">
-        <v>29.11005739570334</v>
+        <v>34.55805631675761</v>
       </c>
       <c r="K7" t="n">
-        <v>15.11070038201349</v>
+        <v>64.24066662574668</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426214</v>
+        <v>132.1299861584111</v>
       </c>
       <c r="M7" t="n">
-        <v>43.7360870974778</v>
+        <v>206.9680378347966</v>
       </c>
       <c r="N7" t="n">
-        <v>67.4840220862791</v>
+        <v>287.8841338195359</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484547842</v>
+        <v>342.3101561934707</v>
       </c>
       <c r="P7" t="n">
-        <v>51.07304592747739</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="Q7" t="n">
-        <v>51.07304592747739</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="R7" t="n">
-        <v>51.07304592747739</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="S7" t="n">
-        <v>51.07304592747739</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="T7" t="n">
-        <v>51.07304592747739</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="U7" t="n">
-        <v>51.07304592747739</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="V7" t="n">
-        <v>29.11005739570334</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="W7" t="n">
-        <v>29.11005739570334</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="X7" t="n">
-        <v>29.11005739570334</v>
+        <v>369.8190495857993</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.11005739570334</v>
+        <v>369.8190495857993</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1754.744438482647</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="C8" t="n">
-        <v>1385.781921542235</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="D8" t="n">
-        <v>1027.516222935484</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>845.7541926763688</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>1996.108592800212</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>1996.108592800212</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>1996.108592800212</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>1643.339937530098</v>
       </c>
       <c r="X8" t="n">
-        <v>2531.48361052258</v>
+        <v>1643.339937530098</v>
       </c>
       <c r="Y8" t="n">
-        <v>2141.344278546768</v>
+        <v>1643.339937530098</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5261380428188</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1571.739130556042</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1571.739130556042</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1317.501773827841</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.501773827841</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.741475062887</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>399.953166412194</v>
       </c>
       <c r="U10" t="n">
-        <v>320.1870662708825</v>
+        <v>399.953166412194</v>
       </c>
       <c r="V10" t="n">
-        <v>214.4252100145765</v>
+        <v>399.953166412194</v>
       </c>
       <c r="W10" t="n">
-        <v>214.4252100145765</v>
+        <v>399.953166412194</v>
       </c>
       <c r="X10" t="n">
-        <v>214.4252100145765</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>171.9636155141767</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>604.4387941280861</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>456.525700545693</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>456.525700545693</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5294,31 +5296,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5467179762944</v>
+        <v>866.4638174991048</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1975.033022579362</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1720.348534373475</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1430.931364336514</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1268.904861472875</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806534</v>
+        <v>1048.112282329345</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5518,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5604,13 +5606,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.613315601761</v>
+        <v>996.5276398439761</v>
       </c>
       <c r="C19" t="n">
-        <v>888.6771326738537</v>
+        <v>827.5914569160692</v>
       </c>
       <c r="D19" t="n">
-        <v>738.560493261518</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>590.6473996791249</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.043910473548</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.05435957553</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.261780432</v>
+        <v>1178.176104674216</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6211,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.594662309226</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309226</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,46 +6469,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>3200.825397924056</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>3031.889214996149</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2733.85948200142</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2586.96953450351</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="X31" t="n">
-        <v>1398.968683817745</v>
+        <v>3449.581883569134</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>3228.789304425604</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>119.2902967703794</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>119.2902967703794</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504994</v>
+        <v>741.843151638084</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>572.9069687101771</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>422.7903292978414</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.095357967755</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.493892990697</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.418666334894</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.734178129007</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.317008092047</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3274571940295</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5348780504994</v>
+        <v>923.4916164683237</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2402.966038179063</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2220.111203833967</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2000.509738856908</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.434512201106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1456.750023995219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1167.332853958259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>939.3433030602413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>718.5507239167111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7251,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7333,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>2504.882831151425</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7839,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>28.00274033431435</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>112.9792378643597</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>65.30341755403418</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>19.85228889678913</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>40.64330621514807</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>138.8202214113362</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>74.19629618688151</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>134.6711151870885</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>152.1477127454047</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>47.43691740069517</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>66.36248435538609</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>22.81817176293593</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864901</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>32.89260457060016</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26077,7 +26079,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580515</v>
       </c>
     </row>
     <row r="13">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597553</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
@@ -26335,22 +26337,22 @@
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218515788</v>
+        <v>270592.3620253111</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385769</v>
+        <v>115410.0540231938</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.04024026726457e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>349.5488811542065</v>
+        <v>62913.63765881943</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.4473694194</v>
+        <v>27875.25362197514</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,37 +26420,37 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.7270444462</v>
+        <v>206604.4229263465</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687954</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687979</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
-      </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687966</v>
@@ -26457,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.6400068797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.8644662255</v>
+        <v>76435.73471936811</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290571.8961217692</v>
+        <v>-290571.8961217694</v>
       </c>
       <c r="C6" t="n">
-        <v>299573.3659156324</v>
+        <v>82674.85197379364</v>
       </c>
       <c r="D6" t="n">
-        <v>-227389.9974592031</v>
+        <v>261495.245676856</v>
       </c>
       <c r="E6" t="n">
-        <v>183566.9831216132</v>
+        <v>-92463.76264529709</v>
       </c>
       <c r="F6" t="n">
-        <v>508979.4449289683</v>
+        <v>508979.4449289686</v>
       </c>
       <c r="G6" t="n">
-        <v>508979.444928968</v>
+        <v>508979.4449289677</v>
       </c>
       <c r="H6" t="n">
         <v>508979.444928968</v>
       </c>
       <c r="I6" t="n">
-        <v>508979.4449289681</v>
+        <v>508979.444928968</v>
       </c>
       <c r="J6" t="n">
-        <v>459914.5002004235</v>
+        <v>459914.5002004236</v>
       </c>
       <c r="K6" t="n">
-        <v>508629.8960478141</v>
+        <v>446065.8072701484</v>
       </c>
       <c r="L6" t="n">
-        <v>346363.9975595488</v>
+        <v>481104.1913069928</v>
       </c>
       <c r="M6" t="n">
-        <v>423924.4169934562</v>
+        <v>351833.0643773699</v>
       </c>
       <c r="N6" t="n">
-        <v>508979.4449289682</v>
+        <v>508979.444928968</v>
       </c>
       <c r="O6" t="n">
-        <v>508979.444928968</v>
+        <v>508979.4449289679</v>
       </c>
       <c r="P6" t="n">
         <v>508979.4449289681</v>
@@ -26707,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.784979792023276e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26725,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906373967</v>
+        <v>758.8996292950608</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>188.8837547751687</v>
+        <v>431.9757039594701</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-8.045058871959616e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-4.957944468847506e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.300300334080712e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>1.169149724492172</v>
+        <v>210.429688382156</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099559016</v>
+        <v>94.81103524262323</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>514.26483580399</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358167608848817</v>
+        <v>244.45011679315</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271239</v>
+        <v>110.1392527666931</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608848833</v>
+        <v>244.45011679315</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271239</v>
+        <v>110.1392527666931</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.300300334080712e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608848817</v>
+        <v>244.45011679315</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271239</v>
+        <v>110.1392527666931</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>254.8013417956751</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>247.9252960539633</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377086</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>102.3056031264233</v>
       </c>
       <c r="W3" t="n">
-        <v>116.4989668403524</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>48.68201325828485</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976603</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193.8500868883119</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>217.9922909665428</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>246.7243219246945</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132938</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380512</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804618</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750908</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4233063711054</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>62.28512978191006</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>338.9306423025752</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>58.81797564619278</v>
+        <v>43.3208508493752</v>
       </c>
       <c r="J6" t="n">
-        <v>15.14162995515569</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167158</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505419</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6.515706709315481</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>61.19516814065452</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>43.91683237425659</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>62.81122838575092</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>43.04289051156456</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>15.17041794421382</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6438173562991</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157589</v>
+        <v>30.24193919304059</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319893</v>
+        <v>36.91115760589167</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510619</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279249</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2649664951167</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>230.3942846773717</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>289.9110058020847</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>37.44453610620764</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27983,19 +27985,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>202.5214111289125</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>124.8296911964373</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>147.4334056300851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.644368062787367e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.542127915817103e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.784979792023276e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.784979792023276e-14</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29934,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-3.471616909482374e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29998,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30757,7 +30759,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31042,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471945</v>
+        <v>3.050852781085669</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247331</v>
+        <v>31.24454604429362</v>
       </c>
       <c r="I5" t="n">
-        <v>85.18577303235475</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265759</v>
+        <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212734</v>
+        <v>388.0799144520265</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025568</v>
+        <v>481.4474502511771</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749097</v>
+        <v>535.7030533968094</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2652343322907</v>
+        <v>544.371288861069</v>
       </c>
       <c r="O5" t="n">
-        <v>372.2934807341977</v>
+        <v>514.0343715191484</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925465</v>
+        <v>438.7164434860959</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736449</v>
+        <v>329.4577782634653</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160859</v>
+        <v>191.6431310098728</v>
       </c>
       <c r="S5" t="n">
-        <v>50.3513599111545</v>
+        <v>69.52130774898976</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193025945</v>
+        <v>13.35510804920252</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1767683507577556</v>
+        <v>0.2440682224868535</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314401</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682592</v>
+        <v>15.76506588403513</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380722</v>
+        <v>56.20152915062479</v>
       </c>
       <c r="J6" t="n">
-        <v>111.695996711511</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565758</v>
+        <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509842</v>
+        <v>354.4276051721886</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973812</v>
+        <v>413.6002979658081</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161037</v>
+        <v>424.5470671468661</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453477</v>
+        <v>388.3776244374449</v>
       </c>
       <c r="P6" t="n">
-        <v>225.7564785676508</v>
+        <v>311.7072835872487</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010452</v>
+        <v>208.3680642547496</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229237</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>21.95963725329598</v>
+        <v>30.32018801947717</v>
       </c>
       <c r="T6" t="n">
-        <v>4.765267210337429</v>
+        <v>6.579516597378873</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963165</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264531</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989743</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095916</v>
+        <v>41.15475366734527</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782022</v>
+        <v>96.75348224635552</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269824</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>147.3573391521965</v>
+        <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124694</v>
+        <v>214.5197755399136</v>
       </c>
       <c r="N7" t="n">
-        <v>151.6733575852345</v>
+        <v>209.4189747528486</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742664</v>
+        <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8753846203266</v>
+        <v>165.5147650514997</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624691</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610759</v>
+        <v>61.53307486054704</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904736</v>
+        <v>23.84935392391198</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976662</v>
+        <v>5.847259438830794</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417023</v>
+        <v>0.07464586517656344</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173734</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601599</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>161.7871425275311</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547064</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33973,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>730.8697159579444</v>
+        <v>245.8118639189585</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34447,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599889621</v>
+        <v>77.89141170198377</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629283</v>
+        <v>167.990063407046</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325695</v>
+        <v>245.6810352811899</v>
       </c>
       <c r="M5" t="n">
-        <v>157.640962647637</v>
+        <v>305.3568201695367</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707356998</v>
+        <v>314.9582252644781</v>
       </c>
       <c r="O5" t="n">
-        <v>142.195269312511</v>
+        <v>283.9361600974617</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727699</v>
+        <v>207.4834477308264</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919543</v>
+        <v>107.1520883890158</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092677</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221684</v>
+        <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>118.14263137111</v>
+        <v>215.8732253923144</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753629</v>
+        <v>271.4662640437897</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327704</v>
+        <v>293.2053550635328</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009033</v>
+        <v>245.7813799930005</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332054</v>
+        <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502373</v>
+        <v>68.38629016872804</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554452</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095823</v>
+        <v>68.57507023501458</v>
       </c>
       <c r="M7" t="n">
-        <v>16.4418691648643</v>
+        <v>75.59399159230856</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000131</v>
+        <v>81.73343028761542</v>
       </c>
       <c r="O7" t="n">
-        <v>1.638356322423562</v>
+        <v>54.97578017569177</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235211</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35814,16 +35816,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802858</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>23.94570355317214</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>140.6875824748323</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>588.7356820359261</v>
+        <v>103.6778299969401</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2424100.011505223</v>
+        <v>2419794.888508154</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9265927.202114932</v>
+        <v>9265927.202114934</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>103.7427589056394</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1725371760947</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>141.4261508958551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>130.4949840230019</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.00402729331236</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>155.3970779862016</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760054</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425929</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>30.80045837589385</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074806</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>196.3506765115049</v>
       </c>
       <c r="X6" t="n">
-        <v>162.7300946919129</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>152.076403154414</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>131.7411392232918</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>269.3968352920091</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>170.6277217633962</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>20.27697994470975</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>23.29916283915599</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976962</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.53812753786532</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>137.5213979579545</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695543</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>59.31005804030049</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>160.4062378350031</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>128.7631841214232</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>86.88943397770092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695436</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>177.9413471369465</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.16086499484882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.733841663478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.6842674365326</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>98.99704524587401</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487954</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323105</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323105</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323105</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158255</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652803</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652803</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652803</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652803</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652803</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652803</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487954</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487954</v>
+        <v>322.4426321268585</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810249</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>336.23494716454</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>146.815162148055</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>15.0020469733056</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W3" t="n">
-        <v>15.0020469733056</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.544105080013</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="C5" t="n">
-        <v>1341.544105080013</v>
+        <v>1358.940298897472</v>
       </c>
       <c r="D5" t="n">
-        <v>1341.544105080013</v>
+        <v>1000.674600290722</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817691</v>
+        <v>614.8863476924773</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>203.9004429028698</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>191.5248017573653</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017213</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.980716674697</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603075</v>
+        <v>521.2049416030765</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709161</v>
+        <v>823.508193570918</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582752</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079239</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332755</v>
+        <v>1621.822248332758</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583788</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540649</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540649</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540649</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540649</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.655679197078</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="W5" t="n">
-        <v>1372.655679197078</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="X5" t="n">
-        <v>1341.544105080013</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="Y5" t="n">
-        <v>1341.544105080013</v>
+        <v>1727.902815837884</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>495.027482145176</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>320.574452864049</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>171.6400432027978</v>
+        <v>340.3300692953282</v>
       </c>
       <c r="E6" t="n">
-        <v>171.6400432027978</v>
+        <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027978</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787511</v>
+        <v>61.66788464787529</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806059</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189971</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>668.623818522349</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352464</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639506</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703771</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699366</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419121</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419121</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="V6" t="n">
-        <v>827.6166521873783</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="W6" t="n">
-        <v>827.6166521873783</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>663.2428191652441</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>663.2428191652441</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.1705847555596</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675761</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574668</v>
+        <v>64.24066662574687</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584111</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347966</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195359</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934707</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857993</v>
+        <v>167.6299141180625</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857993</v>
+        <v>167.6299141180625</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857993</v>
+        <v>167.6299141180625</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857993</v>
+        <v>167.6299141180625</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857993</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857993</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857993</v>
+        <v>34.55805631675768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1256.740097465976</v>
+        <v>334.4233539899591</v>
       </c>
       <c r="C8" t="n">
-        <v>1256.740097465976</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763688</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>429.723147379776</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947426</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>1996.108592800212</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>1996.108592800212</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>1996.108592800212</v>
+        <v>1837.396939561087</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.339937530098</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X8" t="n">
-        <v>1643.339937530098</v>
+        <v>1111.162526029893</v>
       </c>
       <c r="Y8" t="n">
-        <v>1643.339937530098</v>
+        <v>721.0231940540809</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5261380428188</v>
+        <v>693.0104463829912</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0731087616919</v>
+        <v>518.5574171018642</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1386991004406</v>
+        <v>369.6230074406129</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>210.3855524351574</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1571.739130556042</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V9" t="n">
-        <v>1571.739130556042</v>
+        <v>1531.074939101748</v>
       </c>
       <c r="W9" t="n">
-        <v>1317.501773827841</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.501773827841</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.741475062887</v>
+        <v>861.2257834030593</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="C10" t="n">
-        <v>171.9636155141767</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D10" t="n">
-        <v>171.9636155141767</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E10" t="n">
-        <v>171.9636155141767</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>171.9636155141767</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>171.9636155141767</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141767</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514519</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514519</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514519</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>399.953166412194</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>399.953166412194</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>399.953166412194</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>399.953166412194</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470406007</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>221.3431781811715</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811715</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683287</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C13" t="n">
-        <v>754.5554335404219</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D13" t="n">
-        <v>604.4387941280861</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E13" t="n">
-        <v>456.525700545693</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F13" t="n">
-        <v>456.525700545693</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991048</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711978</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711978</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888046</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908941</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057739</v>
+        <v>235.8125159357153</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235164</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579362</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373475</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336514</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472875</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329345</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,37 +5518,37 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>996.5276398439761</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>827.5914569160692</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.968683817746</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.176104674216</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,28 +5755,28 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,13 +6074,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6211,7 +6211,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,7 +6235,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6314,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6469,46 +6469,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924056</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.889214996149</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.85948200142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.96953450351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467151</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569134</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.789304425604</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>119.2902967703794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.843151638084</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101771</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978414</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611854</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683237</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969311</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7159,52 +7159,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7311,34 +7311,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7387,61 +7387,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7453,10 +7453,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151425</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7669,22 +7669,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>28.00274033431435</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>80.9846548059234</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>65.30341755403418</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>19.85228889678913</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>138.8202214113362</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>74.19629618688151</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>134.6711151870885</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.1477127454047</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>47.43691740069517</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801606.5898580515</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597553</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
@@ -26346,13 +26346,13 @@
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253111</v>
+        <v>270592.3620253121</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231938</v>
+        <v>115410.0540231944</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.04024026726457e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.692615608534997e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881943</v>
+        <v>62913.63765881967</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197514</v>
+        <v>27875.25362197521</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687954</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687975</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="J4" t="n">
-        <v>15436.64000687971</v>
-      </c>
       <c r="K4" t="n">
-        <v>15436.64000687979</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687973</v>
       </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="O4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.6400068797</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936811</v>
+        <v>76435.73471936816</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290571.8961217694</v>
+        <v>-290571.8961217692</v>
       </c>
       <c r="C6" t="n">
-        <v>82674.85197379364</v>
+        <v>82674.85197379277</v>
       </c>
       <c r="D6" t="n">
-        <v>261495.245676856</v>
+        <v>261495.2456768558</v>
       </c>
       <c r="E6" t="n">
-        <v>-92463.76264529709</v>
+        <v>-92811.14189965276</v>
       </c>
       <c r="F6" t="n">
-        <v>508979.4449289686</v>
+        <v>508632.0656746108</v>
       </c>
       <c r="G6" t="n">
-        <v>508979.4449289677</v>
+        <v>508632.065674611</v>
       </c>
       <c r="H6" t="n">
-        <v>508979.444928968</v>
+        <v>508632.0656746117</v>
       </c>
       <c r="I6" t="n">
-        <v>508979.444928968</v>
+        <v>508632.0656746108</v>
       </c>
       <c r="J6" t="n">
-        <v>459914.5002004236</v>
+        <v>459567.1209460662</v>
       </c>
       <c r="K6" t="n">
-        <v>446065.8072701484</v>
+        <v>445718.4280157913</v>
       </c>
       <c r="L6" t="n">
-        <v>481104.1913069928</v>
+        <v>480756.8120526358</v>
       </c>
       <c r="M6" t="n">
-        <v>351833.0643773699</v>
+        <v>351485.6851230133</v>
       </c>
       <c r="N6" t="n">
-        <v>508979.444928968</v>
+        <v>508632.0656746111</v>
       </c>
       <c r="O6" t="n">
-        <v>508979.4449289679</v>
+        <v>508632.065674611</v>
       </c>
       <c r="P6" t="n">
-        <v>508979.4449289681</v>
+        <v>508632.0656746111</v>
       </c>
     </row>
   </sheetData>
@@ -26706,13 +26706,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>9.784979792023276e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950608</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26755,7 +26755,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594701</v>
+        <v>431.9757039594709</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,19 +26916,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.045058871959616e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.957944468847506e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382156</v>
+        <v>210.4296883821568</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262323</v>
+        <v>94.8110352426238</v>
       </c>
       <c r="E3" t="n">
-        <v>514.26483580399</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.45011679315</v>
+        <v>244.450116793151</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666931</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.45011679315</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666931</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.45011679315</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666931</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>303.133286836072</v>
       </c>
       <c r="G2" t="n">
-        <v>247.9252960539633</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>25.10703275401224</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681157</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377086</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>102.3056031264233</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.68201325828485</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>152.8331780852719</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27675,13 +27675,13 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>338.9306423025752</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
         <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493752</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>55.34430664941473</v>
       </c>
       <c r="X6" t="n">
-        <v>43.04289051156456</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>15.17041794421382</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304059</v>
+        <v>30.24193919304052</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589167</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>154.7818591132992</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>95.87605647899846</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>37.44453610620764</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>16.02248763433903</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>202.5214111289125</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888582</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28031,10 +28031,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>124.8296911964373</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.644368062787367e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.542127915817103e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9.784979792023276e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>9.784979792023276e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.471616909482374e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30759,7 +30759,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085669</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429362</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520265</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511771</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968094</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.371288861069</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191484</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860959</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634653</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898976</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868535</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062479</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721886</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658081</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468661</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374449</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872487</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947717</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378873</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734527</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635552</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054704</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830794</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656344</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>255.6522884173734</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200318</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601599</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>161.7871425275311</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547064</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,37 +33973,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,25 +34447,25 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198377</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407046</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811899</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695367</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644781</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974617</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308264</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890158</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092677</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923144</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437897</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635328</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930005</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872804</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554452</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501458</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230856</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761542</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569177</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235211</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>128.8146617507067</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35816,16 +35816,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366985</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802858</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>23.94570355317214</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191267</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748323</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969401</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2419794.888508154</v>
+        <v>2421555.418810939</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9265927.202114934</v>
+        <v>9265927.202114932</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>103.7427589056394</v>
+        <v>74.99298492937277</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -709,10 +709,10 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.4261508958551</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>165.4085976923909</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>155.3970779862016</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425943</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>131.4546711819368</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>196.3506765115049</v>
+        <v>196.350676511501</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304066</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>15.14344580671879</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>131.7411392232918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.27697994470975</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>20.27697994470972</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465726</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216654</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.43007309478924</v>
       </c>
       <c r="H16" t="n">
-        <v>59.31005804030049</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695436</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428527</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797062</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.0228155762094</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.0228471103738</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="C2" t="n">
-        <v>133.0228471103738</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="D2" t="n">
-        <v>133.0228471103738</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="E2" t="n">
-        <v>133.0228471103738</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678495</v>
@@ -4336,46 +4336,46 @@
         <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433432</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268585</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268585</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268585</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268585</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268585</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268585</v>
+        <v>482.8222414097407</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>607.2476507906783</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="C3" t="n">
-        <v>607.2476507906783</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
@@ -4418,43 +4418,43 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
     </row>
     <row r="4">
@@ -4473,28 +4473,28 @@
         <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1727.902815837884</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="C5" t="n">
-        <v>1358.940298897472</v>
+        <v>1201.973553456864</v>
       </c>
       <c r="D5" t="n">
-        <v>1000.674600290722</v>
+        <v>843.7078548501138</v>
       </c>
       <c r="E5" t="n">
-        <v>614.8863476924773</v>
+        <v>457.9196022518695</v>
       </c>
       <c r="F5" t="n">
-        <v>203.9004429028698</v>
+        <v>46.93369746226199</v>
       </c>
       <c r="G5" t="n">
-        <v>191.5248017573653</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>277.9807166746969</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030765</v>
+        <v>521.2049416030749</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570918</v>
+        <v>823.5081935709156</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582749</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079239</v>
+        <v>1416.413635079235</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.822248332753</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837884</v>
+        <v>1703.718566540646</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837884</v>
+        <v>1703.718566540646</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837884</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837884</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837884</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="W5" t="n">
-        <v>1727.902815837884</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.902815837884</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.902815837884</v>
+        <v>1570.936070397276</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>663.7175082377064</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>489.2644789565794</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953282</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>181.0926142898726</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787529</v>
+        <v>61.66788464787496</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806062</v>
+        <v>186.1577239806055</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189977</v>
+        <v>399.8722171189964</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223499</v>
+        <v>668.6238185223481</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352478</v>
+        <v>958.8971200352453</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228316</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639505</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906545</v>
       </c>
       <c r="W6" t="n">
         <v>1247.544644228261</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574687</v>
+        <v>64.24066662574653</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584114</v>
+        <v>132.1299861584108</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834797</v>
+        <v>206.9680378347961</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195365</v>
+        <v>287.8841338195352</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934715</v>
+        <v>342.3101561934699</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857984</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857984</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857984</v>
       </c>
       <c r="S7" t="n">
-        <v>167.6299141180625</v>
+        <v>354.5226396800219</v>
       </c>
       <c r="T7" t="n">
-        <v>167.6299141180625</v>
+        <v>354.5226396800219</v>
       </c>
       <c r="U7" t="n">
-        <v>167.6299141180625</v>
+        <v>354.5226396800219</v>
       </c>
       <c r="V7" t="n">
-        <v>167.6299141180625</v>
+        <v>354.5226396800219</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306127</v>
       </c>
     </row>
     <row r="8">
@@ -4819,7 +4819,7 @@
         <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
         <v>2021.630958172451</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829912</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018642</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406129</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351574</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446204239</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>63.85099446204239</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>63.85099446204239</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809315</v>
@@ -4910,25 +4910,25 @@
         <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101748</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373546</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168013</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030593</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>585.863449565931</v>
+        <v>516.3896878871846</v>
       </c>
       <c r="F13" t="n">
-        <v>438.9735020680206</v>
+        <v>369.4997403892742</v>
       </c>
       <c r="G13" t="n">
-        <v>271.7774027829005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>550.9217088032285</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208354</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F16" t="n">
-        <v>403.0086152208354</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G16" t="n">
-        <v>235.8125159357153</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5652,16 +5652,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,31 +5673,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
         <v>2254.869721166297</v>
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.917417812168</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.917417812168</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270479</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038378</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179778</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038378</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179778</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,19 +7247,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
         <v>1186.520756890282</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
         <v>402.7245934908938</v>
@@ -7326,58 +7326,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,58 +7399,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7563,58 +7563,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7642,13 +7642,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7666,19 +7666,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
         <v>1186.520756890282</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>32.89260457060348</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>66.09406519747961</v>
       </c>
       <c r="H16" t="n">
-        <v>80.9846548059234</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194308</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392193859</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.2291039219384</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0.5618377758854365</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448194</v>
@@ -26322,40 +26322,40 @@
         <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253121</v>
+        <v>270592.3620253106</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231944</v>
+        <v>115410.0540231958</v>
       </c>
       <c r="E3" t="n">
         <v>601443.207574264</v>
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.478528238330993e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>3.692615608534997e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881967</v>
+        <v>62913.63765881935</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197521</v>
+        <v>27875.25362197549</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515977</v>
@@ -26420,43 +26420,43 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263463</v>
+        <v>206604.4229263467</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687971</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936816</v>
+        <v>76435.73471936806</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26524,46 +26524,46 @@
         <v>-290571.8961217692</v>
       </c>
       <c r="C6" t="n">
-        <v>82674.85197379277</v>
+        <v>82674.85197379401</v>
       </c>
       <c r="D6" t="n">
-        <v>261495.2456768558</v>
+        <v>261495.2456768544</v>
       </c>
       <c r="E6" t="n">
-        <v>-92811.14189965276</v>
+        <v>-92498.50057073137</v>
       </c>
       <c r="F6" t="n">
-        <v>508632.0656746108</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="G6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.707003532</v>
       </c>
       <c r="H6" t="n">
-        <v>508632.0656746117</v>
+        <v>508944.7070035321</v>
       </c>
       <c r="I6" t="n">
-        <v>508632.0656746108</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="J6" t="n">
-        <v>459567.1209460662</v>
+        <v>459879.762274988</v>
       </c>
       <c r="K6" t="n">
-        <v>445718.4280157913</v>
+        <v>446031.0693447129</v>
       </c>
       <c r="L6" t="n">
-        <v>480756.8120526358</v>
+        <v>481069.4533815569</v>
       </c>
       <c r="M6" t="n">
-        <v>351485.6851230133</v>
+        <v>351798.3264519345</v>
       </c>
       <c r="N6" t="n">
-        <v>508632.0656746111</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="O6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="P6" t="n">
-        <v>508632.0656746111</v>
+        <v>508944.7070035324</v>
       </c>
     </row>
   </sheetData>
@@ -26706,16 +26706,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950613</v>
+        <v>758.8996292950602</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376851</v>
@@ -26755,7 +26755,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594709</v>
+        <v>431.9757039594695</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261643</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26925,10 +26925,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.098160297913741e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821568</v>
+        <v>210.4296883821556</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8110352426238</v>
+        <v>94.81103524262494</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039886</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931496</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666948</v>
       </c>
       <c r="E4" t="n">
         <v>630.593331373484</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931497</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666946</v>
       </c>
       <c r="M4" t="n">
         <v>630.593331373484</v>
@@ -27162,10 +27162,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.098160297913741e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931496</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666948</v>
       </c>
       <c r="M4" t="n">
         <v>630.593331373484</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>303.133286836072</v>
+        <v>331.8830608123387</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.10703275401224</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265839</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>30.00100009961031</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213474</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482797</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>152.8331780852719</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760046</v>
+        <v>92.85788772760063</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425915</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>78.28607033299207</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.47037835246134</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>43.32085084937525</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074799</v>
+        <v>44.33060630074813</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>55.34430664941473</v>
+        <v>55.34430664941857</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304052</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589159</v>
+        <v>36.91115760589176</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>185.0237983063415</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>154.7818591132992</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27952,7 +27952,7 @@
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>16.02248763433903</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>117.2980339485895</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.159872777468991e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.406277926387702e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29933,7 +29933,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3.406277926387702e-12</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085667</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429364</v>
+        <v>31.24454604429359</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286698</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520268</v>
+        <v>388.0799144520262</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511775</v>
+        <v>481.4474502511768</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968098</v>
+        <v>535.703053396809</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610695</v>
+        <v>544.3712888610687</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191481</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860962</v>
+        <v>438.7164434860956</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634651</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098727</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.5213077489897</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920251</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.2440682224868533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030884</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403512</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.20152915062475</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475933</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316626</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721888</v>
+        <v>354.4276051721883</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658084</v>
+        <v>413.6002979658078</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.5470671468659</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374452</v>
+        <v>388.3776244374446</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872489</v>
+        <v>311.7072835872485</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547494</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632158</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947715</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378879</v>
+        <v>6.579516597378869</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236994</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673453</v>
+        <v>41.15475366734524</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635559</v>
+        <v>96.75348224635545</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260798</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162527</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399134</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528485</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275344</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514996</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054708</v>
+        <v>61.53307486054699</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391196</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.84725943883079</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656349</v>
+        <v>0.07464586517656338</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200318</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33979,16 +33979,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>322.8964653704906</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34453,16 +34453,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>322.8964653704906</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198394</v>
+        <v>77.89141170198354</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070457</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811902</v>
+        <v>245.6810352811896</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695371</v>
+        <v>305.3568201695363</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644786</v>
+        <v>314.9582252644778</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974613</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308267</v>
+        <v>207.4834477308261</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890156</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092688</v>
+        <v>27.38366498092665</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573036</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923141</v>
       </c>
       <c r="M6" t="n">
-        <v>271.46626404379</v>
+        <v>271.4662640437895</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635331</v>
+        <v>293.2053550635326</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.7813799930002</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729182</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872818</v>
+        <v>68.38629016872787</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554464</v>
+        <v>29.98243465554441</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501472</v>
+        <v>68.57507023501444</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923087</v>
+        <v>75.59399159230838</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761559</v>
+        <v>81.73343028761528</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569191</v>
+        <v>54.97578017569163</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235199</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366985</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096384</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096384</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>188.9220579561604</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>188.9220579561604</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
